--- a/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
@@ -941,7 +941,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>Azure Application Delivery</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -6823,7 +6823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Inquilinos de Facturación de Azure y de Id. de Microsoft Entra</t>
+          <t>Topología y conectividad de red</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6934,11 +6934,6 @@
           <t>Abrir</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Gestión de identidades y accesos</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>Hay un elemento de acción asociado a esta comprobación</t>
@@ -6961,11 +6956,6 @@
           <t>Cumplido</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Topología y conectividad de red</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>Esta comprobación se ha verificado y no hay más elementos de acción asociados a ella</t>
@@ -6983,11 +6973,6 @@
           <t>No es necesario</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Seguridad</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Recomendación entendida, pero no necesaria por los requisitos actuales</t>
@@ -7005,11 +6990,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Administración</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>No aplicable para el diseño actual</t>
@@ -7018,27 +6998,6 @@
       <c r="K6" t="inlineStr">
         <is>
           <t>es</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Organización de recursos</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Automatización de plataformas y DevOps</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Gobernanza</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: App Gateway</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Load Balancer</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
@@ -1256,12 +1256,12 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: App Gateway</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Las puertas de enlace de aplicaciones deben implementarse en subredes con prefijos IP iguales o mayores que /26</t>
+          <t>Application Gateways v2 debe implementarse en subredes con prefijos IP iguales o mayores que /24</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: App Gateway</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: App Gateway</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: App Gateway</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door con directivas de WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan varias regiones de Azure.</t>
+          <t>Configure el escalado automático con una cantidad mínima de instancias de dos.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1432,19 +1432,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-autoscaling-zone-redundant</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1460,12 +1460,12 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: App Gateway</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Al usar Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo de Front Door.</t>
+          <t>Implementación de Application Gateway en zonas de disponibilidad</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1482,19 +1482,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/migrate-app-gateway-v2</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1510,18 +1510,18 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
+          <t>Use Azure Front Door con directivas de WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan varias regiones de Azure.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1544,7 +1544,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1565,13 +1565,13 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Microsoft Entra ID Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
+          <t>Al usar Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo de Front Door.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1582,19 +1582,19 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1610,18 +1610,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Traffic Manager</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar Microsoft Entra ID Application Proxy para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
+          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1632,19 +1632,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1665,13 +1665,13 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Implemente los perfiles de WAF para Front Door en modo "Prevención".</t>
+          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Microsoft Entra ID Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1682,15 +1682,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I20" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I20" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1711,13 +1715,13 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
+          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar Microsoft Entra ID Application Proxy para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1728,15 +1732,19 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
-        </is>
-      </c>
-      <c r="I21" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I21" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1752,12 +1760,12 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de dominio en Azure Front Door y en su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
+          <t>Implemente los perfiles de WAF para Front Door en modo "Prevención".</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1774,7 +1782,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1782,7 +1790,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1798,18 +1806,18 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Deshabilite los sondeos de estado cuando solo haya un origen en un grupo de orígenes de Azure Front Door.</t>
+          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1820,7 +1828,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1828,7 +1836,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1844,18 +1852,18 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Seleccione puntos de conexión de sondeo de estado correctos para Azure Front Door. Considere la posibilidad de crear puntos de conexión de estado que comprueben todas las dependencias de la aplicación.</t>
+          <t>Use el mismo nombre de dominio en Azure Front Door y en su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1866,7 +1874,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1874,7 +1882,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1890,12 +1898,12 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Use sondeos de estado de HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
+          <t>Deshabilite los sondeos de estado cuando solo haya un origen en un grupo de orígenes de Azure Front Door.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1912,7 +1920,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1920,7 +1928,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1936,18 +1944,18 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Use Azure NAT Gateway en lugar de reglas de salida de Load Balancer para mejorar la escalabilidad de SNAT</t>
+          <t>Seleccione puntos de conexión de sondeo de estado correctos para Azure Front Door. Considere la posibilidad de crear puntos de conexión de estado que comprueben todas las dependencias de la aplicación.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1958,7 +1966,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1966,7 +1974,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1982,18 +1990,18 @@
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS administrados con Azure Front Door. Reduzca los costos operativos y el riesgo de interrupciones debido a las renovaciones de certificados.</t>
+          <t>Use sondeos de estado de HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2004,14 +2012,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2027,18 +2035,18 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Load Balancer</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Defina la configuración de WAF de Azure Front Door como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
+          <t>Use Azure NAT Gateway en lugar de reglas de salida de Load Balancer para mejorar la escalabilidad de SNAT</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2049,14 +2057,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2072,12 +2080,12 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Use TLS de un extremo a otro con Azure Front Door. Use TLS para las conexiones de los clientes a Front Door y de Front Door al origen.</t>
+          <t>Use certificados TLS administrados con Azure Front Door. Reduzca los costos operativos y el riesgo de interrupciones debido a las renovaciones de certificados.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2094,14 +2102,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2117,12 +2125,12 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Use el redireccionamiento de HTTP a HTTPS con Azure Front Door. Apoye a los clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
+          <t>Defina la configuración de WAF de Azure Front Door como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2139,14 +2147,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2162,12 +2170,12 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Habilite el WAF de Azure Front Door. Proteja su aplicación de una variedad de ataques.</t>
+          <t>Use TLS de un extremo a otro con Azure Front Door. Use TLS para las conexiones de los clientes a Front Door y de Front Door al origen.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2184,14 +2192,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2207,18 +2215,18 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de Azure Front Door para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>Use el redireccionamiento de HTTP a HTTPS con Azure Front Door. Apoye a los clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2229,7 +2237,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2237,7 +2245,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2253,12 +2261,12 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Use el modo de prevención con el WAF de Azure Front Door. El modo de prevención garantiza que el WAF bloquee las solicitudes malintencionadas.</t>
+          <t>Habilite el WAF de Azure Front Door. Proteja su aplicación de una variedad de ataques.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2275,7 +2283,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2283,7 +2291,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2299,12 +2307,12 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminados de WAF de Azure Front Door. Los conjuntos de reglas predeterminados detectan y bloquean los ataques comunes.</t>
+          <t>Ajuste el WAF de Azure Front Door para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2321,7 +2329,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2329,7 +2337,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2345,12 +2353,12 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Habilite las reglas de administración de bots de WAF de Azure Front Door. Las reglas de bots detectan bots buenos y malos.</t>
+          <t>Use el modo de prevención con el WAF de Azure Front Door. El modo de prevención garantiza que el WAF bloquee las solicitudes malintencionadas.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2367,7 +2375,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2375,7 +2383,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2391,18 +2399,18 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Habilite los conjuntos de reglas predeterminados de WAF de Azure Front Door. Los conjuntos de reglas predeterminados detectan y bloquean los ataques comunes.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2413,7 +2421,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2421,7 +2429,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2437,18 +2445,18 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes que envían accidental o intencionadamente grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Habilite las reglas de administración de bots de WAF de Azure Front Door. Las reglas de bots detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2459,7 +2467,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2467,7 +2475,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2483,12 +2491,12 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de frecuencia de WAF de Azure Front Door. Los umbrales de límite de velocidad altos evitan el bloqueo del tráfico legítimo y, al mismo tiempo, brindan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
+          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2505,7 +2513,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2513,7 +2521,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2529,18 +2537,18 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Filtre geográficamente el tráfico mediante el WAF de Azure Front Door. Permita el tráfico solo de las regiones esperadas y bloquee el tráfico de otras regiones.</t>
+          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes que envían accidental o intencionadamente grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2551,7 +2559,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2559,7 +2567,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2575,12 +2583,12 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con el WAF de Azure Front Door. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se puedan hacer coincidir geográficamente.</t>
+          <t xml:space="preserve">Use un umbral alto para los límites de frecuencia de WAF de Azure Front Door. Los umbrales de límite de velocidad altos evitan el bloqueo del tráfico legítimo y, al mismo tiempo, brindan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2597,7 +2605,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2605,7 +2613,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2614,34 +2622,92 @@
       <c r="P40" s="25" t="n"/>
     </row>
     <row r="41" ht="16.5" customHeight="1">
-      <c r="A41" s="21" t="n"/>
-      <c r="B41" s="21" t="n"/>
-      <c r="C41" s="21" t="n"/>
+      <c r="A41" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B41" s="21" t="inlineStr">
+        <is>
+          <t>Entrega de aplicaciones: Front Door</t>
+        </is>
+      </c>
+      <c r="C41" s="21" t="inlineStr">
+        <is>
+          <t>Filtre geográficamente el tráfico mediante el WAF de Azure Front Door. Permita el tráfico solo de las regiones esperadas y bloquee el tráfico de otras regiones.</t>
+        </is>
+      </c>
       <c r="D41" s="21" t="n"/>
-      <c r="E41" s="21" t="n"/>
+      <c r="E41" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G41" s="21" t="n"/>
-      <c r="H41" s="15" t="n"/>
+      <c r="H41" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
-      <c r="L41" s="25" t="n"/>
+      <c r="L41" s="25" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M41" s="25" t="n"/>
       <c r="N41" s="25" t="n"/>
       <c r="O41" s="25" t="n"/>
       <c r="P41" s="25" t="n"/>
     </row>
     <row r="42" ht="16.5" customHeight="1">
-      <c r="A42" s="21" t="n"/>
-      <c r="B42" s="21" t="n"/>
-      <c r="C42" s="21" t="n"/>
+      <c r="A42" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B42" s="21" t="inlineStr">
+        <is>
+          <t>Entrega de aplicaciones: Front Door</t>
+        </is>
+      </c>
+      <c r="C42" s="21" t="inlineStr">
+        <is>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con el WAF de Azure Front Door. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se puedan hacer coincidir geográficamente.</t>
+        </is>
+      </c>
       <c r="D42" s="21" t="n"/>
-      <c r="E42" s="21" t="n"/>
+      <c r="E42" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G42" s="21" t="n"/>
-      <c r="H42" s="15" t="n"/>
+      <c r="H42" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="I42" s="15" t="n"/>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
-      <c r="L42" s="25" t="n"/>
+      <c r="L42" s="25" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M42" s="25" t="n"/>
       <c r="N42" s="25" t="n"/>
       <c r="O42" s="25" t="n"/>
@@ -6808,7 +6874,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F41" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F43" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje tanto para aplicaciones internas (corp) como externas (en línea).</t>
+          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje tanto para aplicaciones internas (corporativas) como externas (en línea).</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1144,7 +1144,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>b71ca41b-3a80-48f3-a6cd-22cdf197c1cf</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: App Gateway</t>
+          <t>Entrega de aplicaciones: Load Balancer</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Application Gateways v2 debe implementarse en subredes con prefijos IP iguales o mayores que /24</t>
+          <t>Asegúrese de que las direcciones IP de front-end de Load Balancers tengan redundancia de zona (a menos que necesite front-end zonal).</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1278,19 +1278,15 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
-        </is>
-      </c>
-      <c r="I12" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-standard-availability-zones</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="n"/>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1311,14 +1307,10 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Implemente Azure Application Gateway v2 o aplicaciones virtuales de red de asociados que se usan para proxy de conexiones HTTP(S) entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
-        </is>
-      </c>
-      <c r="D13" s="21" t="inlineStr">
-        <is>
-          <t>La administración de proxies inversos en general y de WAF en particular está más cerca de la aplicación que de la red, por lo que pertenecen a la misma suscripción que la aplicación. La centralización de Application Gateway y WAF en la suscripción de conectividad puede ser correcta si la administra un solo equipo.</t>
-        </is>
-      </c>
+          <t>Application Gateways v2 debe implementarse en subredes con prefijos IP iguales o mayores que /24</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1332,7 +1324,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
@@ -1344,7 +1336,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1365,10 +1357,14 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Use una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="n"/>
+          <t>Implemente Azure Application Gateway v2 o aplicaciones virtuales de red de asociados que se usan para proxy de conexiones HTTP(S) entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="inlineStr">
+        <is>
+          <t>La administración de proxies inversos en general y de WAF en particular está más cerca de la aplicación que de la red, por lo que pertenecen a la misma suscripción que la aplicación. La centralización de Application Gateway y WAF en la suscripción de conectividad puede ser correcta si la administra un solo equipo.</t>
+        </is>
+      </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1387,14 +1383,14 @@
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1415,7 +1411,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Configure el escalado automático con una cantidad mínima de instancias de dos.</t>
+          <t>Use una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1432,19 +1428,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-autoscaling-zone-redundant</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
+          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1465,7 +1461,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Implementación de Application Gateway en zonas de disponibilidad</t>
+          <t>Configure el escalado automático con una cantidad mínima de instancias de dos.</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1482,7 +1478,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/migrate-app-gateway-v2</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-autoscaling-zone-redundant</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
@@ -1494,7 +1490,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1510,12 +1506,12 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Entrega de aplicaciones: App Gateway</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door con directivas de WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan varias regiones de Azure.</t>
+          <t>Implementación de Application Gateway en zonas de disponibilidad</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1532,19 +1528,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/migrate-app-gateway-v2</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1560,12 +1556,12 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Al usar Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo de Front Door.</t>
+          <t>Use Azure Front Door con directivas de WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan varias regiones de Azure.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1582,7 +1578,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
@@ -1594,7 +1590,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1610,18 +1606,18 @@
       </c>
       <c r="B19" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Traffic Manager</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
+          <t>Al usar Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo de Front Door.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1632,7 +1628,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
@@ -1644,7 +1640,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1660,18 +1656,18 @@
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Entrega de aplicaciones: Traffic Manager</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Microsoft Entra ID Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
+          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1682,19 +1678,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1715,13 +1711,13 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar Microsoft Entra ID Application Proxy para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
+          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Microsoft Entra ID Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1737,14 +1733,14 @@
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1760,18 +1756,18 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Implemente los perfiles de WAF para Front Door en modo "Prevención".</t>
+          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar Microsoft Entra ID Application Proxy para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1782,15 +1778,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I22" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I22" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
+          <t>Implemente los perfiles de WAF para Front Door en modo "Prevención".</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1828,7 +1828,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1836,7 +1836,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de dominio en Azure Front Door y en su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
+          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1874,7 +1874,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1882,7 +1882,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1903,13 +1903,13 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Deshabilite los sondeos de estado cuando solo haya un origen en un grupo de orígenes de Azure Front Door.</t>
+          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1920,7 +1920,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1928,7 +1928,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1949,13 +1949,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Seleccione puntos de conexión de sondeo de estado correctos para Azure Front Door. Considere la posibilidad de crear puntos de conexión de estado que comprueben todas las dependencias de la aplicación.</t>
+          <t>Deshabilite los sondeos de estado cuando solo haya un origen en un grupo de orígenes de Azure Front Door.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1966,7 +1966,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1974,7 +1974,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1995,13 +1995,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Use sondeos de estado de HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
+          <t>Seleccione puntos de conexión de sondeo de estado correctos para Azure Front Door. Considere la posibilidad de crear puntos de conexión de estado que comprueben todas las dependencias de la aplicación.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2012,14 +2012,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2035,18 +2035,18 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Load Balancer</t>
+          <t>Entrega de aplicaciones: Front Door</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Use Azure NAT Gateway en lugar de reglas de salida de Load Balancer para mejorar la escalabilidad de SNAT</t>
+          <t>Use sondeos de estado de HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2057,14 +2057,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2080,12 +2080,12 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Entrega de aplicaciones: Load Balancer</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS administrados con Azure Front Door. Reduzca los costos operativos y el riesgo de interrupciones debido a las renovaciones de certificados.</t>
+          <t>Use Azure NAT Gateway en lugar de reglas de salida de Load Balancer para mejorar la escalabilidad de SNAT</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2102,14 +2102,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2130,13 +2130,13 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Defina la configuración de WAF de Azure Front Door como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
+          <t>Use certificados TLS administrados con Azure Front Door. Reduzca los costos operativos y el riesgo de interrupciones debido a las renovaciones de certificados.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2147,14 +2147,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2175,13 +2175,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Use TLS de un extremo a otro con Azure Front Door. Use TLS para las conexiones de los clientes a Front Door y de Front Door al origen.</t>
+          <t>Defina la configuración de WAF de Azure Front Door como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2192,14 +2192,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2220,13 +2220,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Use el redireccionamiento de HTTP a HTTPS con Azure Front Door. Apoye a los clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
+          <t>Use TLS de un extremo a otro con Azure Front Door. Use TLS para las conexiones de los clientes a Front Door y de Front Door al origen.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2237,7 +2237,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2245,7 +2245,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2266,13 +2266,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Habilite el WAF de Azure Front Door. Proteja su aplicación de una variedad de ataques.</t>
+          <t>Use el redireccionamiento de HTTP a HTTPS con Azure Front Door. Apoye a los clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2283,7 +2283,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2291,7 +2291,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de Azure Front Door para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>Habilite el WAF de Azure Front Door. Proteja su aplicación de una variedad de ataques.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2329,7 +2329,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2337,7 +2337,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Use el modo de prevención con el WAF de Azure Front Door. El modo de prevención garantiza que el WAF bloquee las solicitudes malintencionadas.</t>
+          <t>Ajuste el WAF de Azure Front Door para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2375,7 +2375,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2383,7 +2383,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminados de WAF de Azure Front Door. Los conjuntos de reglas predeterminados detectan y bloquean los ataques comunes.</t>
+          <t>Use el modo de prevención con el WAF de Azure Front Door. El modo de prevención garantiza que el WAF bloquee las solicitudes malintencionadas.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2421,7 +2421,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2429,7 +2429,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Habilite las reglas de administración de bots de WAF de Azure Front Door. Las reglas de bots detectan bots buenos y malos.</t>
+          <t>Habilite los conjuntos de reglas predeterminados de WAF de Azure Front Door. Los conjuntos de reglas predeterminados detectan y bloquean los ataques comunes.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2467,7 +2467,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2475,7 +2475,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2496,13 +2496,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Habilite las reglas de administración de bots de WAF de Azure Front Door. Las reglas de bots detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2513,7 +2513,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2521,7 +2521,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes que envían accidental o intencionadamente grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2559,7 +2559,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2567,7 +2567,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de frecuencia de WAF de Azure Front Door. Los umbrales de límite de velocidad altos evitan el bloqueo del tráfico legítimo y, al mismo tiempo, brindan protección contra un número extremadamente alto de solicitudes que podrían abrumar su infraestructura. </t>
+          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes que envían accidental o intencionadamente grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2605,7 +2605,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2613,7 +2613,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2634,13 +2634,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Filtre geográficamente el tráfico mediante el WAF de Azure Front Door. Permita el tráfico solo de las regiones esperadas y bloquee el tráfico de otras regiones.</t>
+          <t xml:space="preserve">Use un umbral alto para los límites de frecuencia de WAF de Azure Front Door. Los umbrales de límite de velocidad altos evitan el bloqueo del tráfico legítimo, a la vez que proporcionan protección contra un número extremadamente alto de solicitudes que podrían sobrecargar su infraestructura. </t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2651,7 +2651,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2659,7 +2659,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2680,13 +2680,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con el WAF de Azure Front Door. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no se puedan hacer coincidir geográficamente.</t>
+          <t>Filtre geográficamente el tráfico mediante el WAF de Azure Front Door. Permita el tráfico solo de las regiones esperadas y bloquee el tráfico de otras regiones.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2697,7 +2697,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2705,7 +2705,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2714,17 +2714,46 @@
       <c r="P42" s="25" t="n"/>
     </row>
     <row r="43" ht="16.5" customHeight="1">
-      <c r="A43" s="21" t="n"/>
-      <c r="B43" s="21" t="n"/>
-      <c r="C43" s="21" t="n"/>
+      <c r="A43" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B43" s="21" t="inlineStr">
+        <is>
+          <t>Entrega de aplicaciones: Front Door</t>
+        </is>
+      </c>
+      <c r="C43" s="21" t="inlineStr">
+        <is>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con el WAF de Azure Front Door. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no puedan coincidir geográficamente.</t>
+        </is>
+      </c>
       <c r="D43" s="21" t="n"/>
-      <c r="E43" s="21" t="n"/>
+      <c r="E43" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G43" s="21" t="n"/>
-      <c r="H43" s="15" t="n"/>
+      <c r="H43" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
-      <c r="L43" s="25" t="n"/>
+      <c r="L43" s="25" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M43" s="25" t="n"/>
       <c r="N43" s="25" t="n"/>
       <c r="O43" s="25" t="n"/>
@@ -6874,7 +6903,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F43" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F44" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: App Gateway</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Load Balancer</t>
+          <t>Equilibrador de carga</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Load Balancer</t>
+          <t>Equilibrador de carga</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: App Gateway</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: App Gateway</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: App Gateway</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: App Gateway</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: App Gateway</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Traffic Manager</t>
+          <t>Administrador de tráfico</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Load Balancer</t>
+          <t>Equilibrador de carga</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones: Front Door</t>
+          <t>Puerta</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">

--- a/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados.</t>
+          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Implemente los perfiles de WAF para Front Door en modo "Prevención".</t>
+          <t>Implemente la directiva de WAF para Front Door en modo de "prevención".</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Defina la configuración de WAF de Azure Front Door como código. Mediante el uso de código, puede adoptar más fácilmente nuevas versiones del conjunto de reglas y obtener protección adicional.</t>
+          <t>Defina la configuración de WAF de Azure Front Door como código. Mediante el uso de código, puede adoptar más fácilmente una nueva versión del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Use el modo de prevención con el WAF de Azure Front Door. El modo de prevención garantiza que el WAF bloquee las solicitudes malintencionadas.</t>
+          <t>Habilite la característica de inspección del cuerpo de la solicitud habilitada en la directiva WAF de Azure Front Door.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2421,7 +2421,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-request-size-limits#request-body-inspection</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Habilite las reglas de administración de bots de WAF de Azure Front Door. Las reglas de bots detectan bots buenos y malos.</t>
+          <t>Habilite el conjunto de reglas de protección contra bots de Azure Front Door WAF. Las reglas de bots detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Use las versiones más recientes del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Use la versión más reciente del conjunto de reglas de WAF de Azure Front Door. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Filtre geográficamente el tráfico mediante el WAF de Azure Front Door. Permita el tráfico solo de las regiones esperadas y bloquee el tráfico de otras regiones.</t>
+          <t>Si no espera tráfico de todas las regiones geográficas, utilice filtros geográficos para bloquear el tráfico de países no esperados.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2760,263 +2760,727 @@
       <c r="P43" s="25" t="n"/>
     </row>
     <row r="44" ht="16.5" customHeight="1">
-      <c r="A44" s="21" t="n"/>
-      <c r="B44" s="21" t="n"/>
-      <c r="C44" s="21" t="n"/>
+      <c r="A44" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B44" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C44" s="21" t="inlineStr">
+        <is>
+          <t>Habilitación del conjunto de reglas de protección contra bots de WAF de Azure Application Gateway Las reglas de bots detectan bots buenos y malos.</t>
+        </is>
+      </c>
       <c r="D44" s="21" t="n"/>
-      <c r="E44" s="21" t="n"/>
+      <c r="E44" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="n"/>
+      <c r="H44" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/bot-protection</t>
+        </is>
+      </c>
       <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
-      <c r="L44" s="25" t="n"/>
+      <c r="L44" s="25" t="inlineStr">
+        <is>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
+        </is>
+      </c>
       <c r="M44" s="25" t="n"/>
       <c r="N44" s="25" t="n"/>
       <c r="O44" s="25" t="n"/>
       <c r="P44" s="25" t="n"/>
     </row>
     <row r="45" ht="16.5" customHeight="1">
-      <c r="A45" s="21" t="n"/>
-      <c r="B45" s="21" t="n"/>
-      <c r="C45" s="21" t="n"/>
+      <c r="A45" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B45" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C45" s="21" t="inlineStr">
+        <is>
+          <t>Habilite la característica de inspección del cuerpo de la solicitud habilitada en la directiva WAF de Azure Application Gateway.</t>
+        </is>
+      </c>
       <c r="D45" s="21" t="n"/>
-      <c r="E45" s="21" t="n"/>
+      <c r="E45" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="n"/>
+      <c r="H45" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-request-size-limits#request-body-inspection</t>
+        </is>
+      </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
-      <c r="L45" s="25" t="n"/>
+      <c r="L45" s="25" t="inlineStr">
+        <is>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
+        </is>
+      </c>
       <c r="M45" s="25" t="n"/>
       <c r="N45" s="25" t="n"/>
       <c r="O45" s="25" t="n"/>
       <c r="P45" s="25" t="n"/>
     </row>
     <row r="46" ht="16.5" customHeight="1">
-      <c r="A46" s="21" t="n"/>
-      <c r="B46" s="21" t="n"/>
-      <c r="C46" s="21" t="n"/>
+      <c r="A46" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B46" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C46" s="21" t="inlineStr">
+        <is>
+          <t>Ajuste el WAF de Azure Application Gateway para la carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+        </is>
+      </c>
       <c r="D46" s="21" t="n"/>
-      <c r="E46" s="21" t="n"/>
+      <c r="E46" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G46" s="21" t="n"/>
-      <c r="H46" s="15" t="n"/>
+      <c r="H46" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
-      <c r="L46" s="25" t="n"/>
+      <c r="L46" s="25" t="inlineStr">
+        <is>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
+        </is>
+      </c>
       <c r="M46" s="25" t="n"/>
       <c r="N46" s="25" t="n"/>
       <c r="O46" s="25" t="n"/>
       <c r="P46" s="25" t="n"/>
     </row>
     <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="21" t="n"/>
-      <c r="B47" s="21" t="n"/>
-      <c r="C47" s="21" t="n"/>
+      <c r="A47" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B47" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C47" s="21" t="inlineStr">
+        <is>
+          <t>Implemente la directiva de WAF para Application Gateway en modo de "prevención".</t>
+        </is>
+      </c>
       <c r="D47" s="21" t="n"/>
-      <c r="E47" s="21" t="n"/>
+      <c r="E47" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="n"/>
+      <c r="H47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+        </is>
+      </c>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
-      <c r="L47" s="25" t="n"/>
+      <c r="L47" s="25" t="inlineStr">
+        <is>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
+        </is>
+      </c>
       <c r="M47" s="25" t="n"/>
       <c r="N47" s="25" t="n"/>
       <c r="O47" s="25" t="n"/>
       <c r="P47" s="25" t="n"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="21" t="n"/>
-      <c r="B48" s="21" t="n"/>
-      <c r="C48" s="21" t="n"/>
+      <c r="A48" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B48" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C48" s="21" t="inlineStr">
+        <is>
+          <t>Agregue limitación de velocidad al WAF de Azure Application Gateway. La limitación de velocidad bloquea a los clientes que envían accidental o intencionadamente grandes cantidades de tráfico en un corto período de tiempo.</t>
+        </is>
+      </c>
       <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="n"/>
+      <c r="E48" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="n"/>
+      <c r="H48" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview</t>
+        </is>
+      </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
-      <c r="L48" s="25" t="n"/>
+      <c r="L48" s="25" t="inlineStr">
+        <is>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
+        </is>
+      </c>
       <c r="M48" s="25" t="n"/>
       <c r="N48" s="25" t="n"/>
       <c r="O48" s="25" t="n"/>
       <c r="P48" s="25" t="n"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="21" t="n"/>
-      <c r="B49" s="21" t="n"/>
-      <c r="C49" s="21" t="n"/>
+      <c r="A49" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B49" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C49" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use un umbral alto para los límites de frecuencia de WAF de Azure Application Gateway. Los umbrales de límite de velocidad altos evitan el bloqueo del tráfico legítimo, a la vez que proporcionan protección contra un número extremadamente alto de solicitudes que podrían sobrecargar su infraestructura. </t>
+        </is>
+      </c>
       <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="n"/>
+      <c r="E49" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview#rate-limiting-details</t>
+        </is>
+      </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
-      <c r="L49" s="25" t="n"/>
+      <c r="L49" s="25" t="inlineStr">
+        <is>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
+        </is>
+      </c>
       <c r="M49" s="25" t="n"/>
       <c r="N49" s="25" t="n"/>
       <c r="O49" s="25" t="n"/>
       <c r="P49" s="25" t="n"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="21" t="n"/>
-      <c r="B50" s="21" t="n"/>
-      <c r="C50" s="21" t="n"/>
+      <c r="A50" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B50" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C50" s="21" t="inlineStr">
+        <is>
+          <t>Si no espera tráfico de todas las regiones geográficas, utilice filtros geográficos para bloquear el tráfico de países no esperados.</t>
+        </is>
+      </c>
       <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="n"/>
+      <c r="E50" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="n"/>
+      <c r="H50" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#geo-filtering-best-practices</t>
+        </is>
+      </c>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
-      <c r="L50" s="25" t="n"/>
+      <c r="L50" s="25" t="inlineStr">
+        <is>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
+        </is>
+      </c>
       <c r="M50" s="25" t="n"/>
       <c r="N50" s="25" t="n"/>
       <c r="O50" s="25" t="n"/>
       <c r="P50" s="25" t="n"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="21" t="n"/>
-      <c r="B51" s="21" t="n"/>
-      <c r="C51" s="21" t="n"/>
+      <c r="A51" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B51" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C51" s="21" t="inlineStr">
+        <is>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con el WAF de Azure Application Gateway. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no puedan coincidir geográficamente.</t>
+        </is>
+      </c>
       <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="n"/>
+      <c r="H51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/geomatch-custom-rules</t>
+        </is>
+      </c>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="n"/>
+      <c r="L51" s="25" t="inlineStr">
+        <is>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
+        </is>
+      </c>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
       <c r="P51" s="25" t="n"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="21" t="n"/>
-      <c r="B52" s="21" t="n"/>
-      <c r="C52" s="21" t="n"/>
+      <c r="A52" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B52" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C52" s="21" t="inlineStr">
+        <is>
+          <t>Use la versión más reciente del conjunto de reglas de WAF de Azure Application Gateway. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+        </is>
+      </c>
       <c r="D52" s="21" t="n"/>
-      <c r="E52" s="21" t="n"/>
+      <c r="E52" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="n"/>
+      <c r="H52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
-      <c r="L52" s="25" t="n"/>
+      <c r="L52" s="25" t="inlineStr">
+        <is>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
+        </is>
+      </c>
       <c r="M52" s="25" t="n"/>
       <c r="N52" s="25" t="n"/>
       <c r="O52" s="25" t="n"/>
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="n"/>
-      <c r="B53" s="21" t="n"/>
-      <c r="C53" s="21" t="n"/>
+      <c r="A53" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B53" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C53" s="21" t="inlineStr">
+        <is>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Application Gateway.</t>
+        </is>
+      </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="n"/>
+      <c r="H53" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="n"/>
+      <c r="L53" s="25" t="inlineStr">
+        <is>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
+        </is>
+      </c>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
       <c r="P53" s="25" t="n"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="21" t="n"/>
-      <c r="B54" s="21" t="n"/>
-      <c r="C54" s="21" t="n"/>
+      <c r="A54" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B54" s="21" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C54" s="21" t="inlineStr">
+        <is>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D54" s="21" t="n"/>
-      <c r="E54" s="21" t="n"/>
+      <c r="E54" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="n"/>
+      <c r="H54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
-      <c r="L54" s="25" t="n"/>
+      <c r="L54" s="25" t="inlineStr">
+        <is>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
+        </is>
+      </c>
       <c r="M54" s="25" t="n"/>
       <c r="N54" s="25" t="n"/>
       <c r="O54" s="25" t="n"/>
       <c r="P54" s="25" t="n"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="21" t="n"/>
-      <c r="B55" s="21" t="n"/>
-      <c r="C55" s="21" t="n"/>
+      <c r="A55" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B55" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C55" s="21" t="inlineStr">
+        <is>
+          <t>Envíe registros de WAF de Azure Application Gateway a Microsoft Sentinel.</t>
+        </is>
+      </c>
       <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="n"/>
+      <c r="E55" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="n"/>
+      <c r="H55" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
-      <c r="L55" s="25" t="n"/>
+      <c r="L55" s="25" t="inlineStr">
+        <is>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
+        </is>
+      </c>
       <c r="M55" s="25" t="n"/>
       <c r="N55" s="25" t="n"/>
       <c r="O55" s="25" t="n"/>
       <c r="P55" s="25" t="n"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="21" t="n"/>
-      <c r="B56" s="21" t="n"/>
-      <c r="C56" s="21" t="n"/>
+      <c r="A56" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B56" s="21" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C56" s="21" t="inlineStr">
+        <is>
+          <t>Envíe registros de WAF de Azure Front Door a Microsoft Sentinel.</t>
+        </is>
+      </c>
       <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="n"/>
+      <c r="E56" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="n"/>
+      <c r="H56" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
-      <c r="L56" s="25" t="n"/>
+      <c r="L56" s="25" t="inlineStr">
+        <is>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
+        </is>
+      </c>
       <c r="M56" s="25" t="n"/>
       <c r="N56" s="25" t="n"/>
       <c r="O56" s="25" t="n"/>
       <c r="P56" s="25" t="n"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="21" t="n"/>
-      <c r="B57" s="21" t="n"/>
-      <c r="C57" s="21" t="n"/>
+      <c r="A57" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B57" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C57" s="21" t="inlineStr">
+        <is>
+          <t>Defina la configuración de WAF de Azure Application Gateway como código. Mediante el uso de código, puede adoptar más fácilmente una nueva versión del conjunto de reglas y obtener protección adicional.</t>
+        </is>
+      </c>
       <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="n"/>
+      <c r="E57" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G57" s="21" t="n"/>
-      <c r="H57" s="15" t="n"/>
+      <c r="H57" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
-      <c r="L57" s="25" t="n"/>
+      <c r="L57" s="25" t="inlineStr">
+        <is>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
+        </is>
+      </c>
       <c r="M57" s="25" t="n"/>
       <c r="N57" s="25" t="n"/>
       <c r="O57" s="25" t="n"/>
       <c r="P57" s="25" t="n"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="21" t="n"/>
-      <c r="B58" s="21" t="n"/>
-      <c r="C58" s="21" t="n"/>
+      <c r="A58" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B58" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C58" s="21" t="inlineStr">
+        <is>
+          <t>Utilice directivas de WAF en lugar de la configuración de WAF heredada.</t>
+        </is>
+      </c>
       <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="n"/>
+      <c r="E58" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="n"/>
+      <c r="H58" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/policy-overview</t>
+        </is>
+      </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
-      <c r="L58" s="25" t="n"/>
+      <c r="L58" s="25" t="inlineStr">
+        <is>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
+        </is>
+      </c>
       <c r="M58" s="25" t="n"/>
       <c r="N58" s="25" t="n"/>
       <c r="O58" s="25" t="n"/>
       <c r="P58" s="25" t="n"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="21" t="n"/>
-      <c r="B59" s="21" t="n"/>
-      <c r="C59" s="21" t="n"/>
+      <c r="A59" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B59" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C59" s="21" t="inlineStr">
+        <is>
+          <t>Filtre el tráfico entrante en los back-end para que solo acepten conexiones de la subred de Application Gateway, por ejemplo, con grupos de seguridad de red.</t>
+        </is>
+      </c>
       <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="n"/>
+      <c r="E59" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="n"/>
+      <c r="H59" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-secured-hub-app-gateway</t>
+        </is>
+      </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
-      <c r="L59" s="25" t="n"/>
+      <c r="L59" s="25" t="inlineStr">
+        <is>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
+        </is>
+      </c>
       <c r="M59" s="25" t="n"/>
       <c r="N59" s="25" t="n"/>
       <c r="O59" s="25" t="n"/>
@@ -6903,7 +7367,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F44" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
@@ -3487,16 +3487,45 @@
       <c r="P59" s="25" t="n"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="21" t="n"/>
-      <c r="B60" s="21" t="n"/>
-      <c r="C60" s="21" t="n"/>
+      <c r="A60" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B60" s="21" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C60" s="21" t="inlineStr">
+        <is>
+          <t>Asegúrese de que los orígenes solo toman tráfico de la instancia de Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D60" s="21" t="n"/>
-      <c r="E60" s="21" t="n"/>
+      <c r="E60" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G60" s="21" t="n"/>
-      <c r="H60" s="15" t="n"/>
+      <c r="H60" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/frontdoor/origin-security?tabs=app-service-functions</t>
+        </is>
+      </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
-      <c r="L60" s="25" t="n"/>
+      <c r="L60" s="25" t="inlineStr">
+        <is>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
+        </is>
+      </c>
       <c r="M60" s="25" t="n"/>
       <c r="N60" s="25" t="n"/>
       <c r="O60" s="25" t="n"/>
@@ -7367,7 +7396,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F61" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
@@ -3487,65 +3487,181 @@
       <c r="P59" s="25" t="n"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="21" t="n"/>
-      <c r="B60" s="21" t="n"/>
-      <c r="C60" s="21" t="n"/>
+      <c r="A60" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B60" s="21" t="inlineStr">
+        <is>
+          <t>Puerta</t>
+        </is>
+      </c>
+      <c r="C60" s="21" t="inlineStr">
+        <is>
+          <t>Asegúrese de que los orígenes solo toman tráfico de la instancia de Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D60" s="21" t="n"/>
-      <c r="E60" s="21" t="n"/>
+      <c r="E60" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G60" s="21" t="n"/>
-      <c r="H60" s="15" t="n"/>
+      <c r="H60" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/origin-security?tabs=app-service-functions</t>
+        </is>
+      </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
-      <c r="L60" s="25" t="n"/>
+      <c r="L60" s="25" t="inlineStr">
+        <is>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
+        </is>
+      </c>
       <c r="M60" s="25" t="n"/>
       <c r="N60" s="25" t="n"/>
       <c r="O60" s="25" t="n"/>
       <c r="P60" s="25" t="n"/>
     </row>
     <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="21" t="n"/>
-      <c r="B61" s="21" t="n"/>
-      <c r="C61" s="21" t="n"/>
+      <c r="A61" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B61" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C61" s="21" t="inlineStr">
+        <is>
+          <t>Debe cifrar el tráfico a los servidores backend.</t>
+        </is>
+      </c>
       <c r="D61" s="21" t="n"/>
-      <c r="E61" s="21" t="n"/>
+      <c r="E61" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G61" s="21" t="n"/>
-      <c r="H61" s="15" t="n"/>
+      <c r="H61" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/ssl-overview</t>
+        </is>
+      </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
-      <c r="L61" s="25" t="n"/>
+      <c r="L61" s="25" t="inlineStr">
+        <is>
+          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
+        </is>
+      </c>
       <c r="M61" s="25" t="n"/>
       <c r="N61" s="25" t="n"/>
       <c r="O61" s="25" t="n"/>
       <c r="P61" s="25" t="n"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="21" t="n"/>
-      <c r="B62" s="21" t="n"/>
-      <c r="C62" s="21" t="n"/>
+      <c r="A62" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B62" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C62" s="21" t="inlineStr">
+        <is>
+          <t>Debe utilizar un firewall de aplicaciones web.</t>
+        </is>
+      </c>
       <c r="D62" s="21" t="n"/>
-      <c r="E62" s="21" t="n"/>
+      <c r="E62" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G62" s="21" t="n"/>
-      <c r="H62" s="15" t="n"/>
+      <c r="H62" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/overview</t>
+        </is>
+      </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
-      <c r="L62" s="25" t="n"/>
+      <c r="L62" s="25" t="inlineStr">
+        <is>
+          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
+        </is>
+      </c>
       <c r="M62" s="25" t="n"/>
       <c r="N62" s="25" t="n"/>
       <c r="O62" s="25" t="n"/>
       <c r="P62" s="25" t="n"/>
     </row>
     <row r="63" ht="16.5" customHeight="1">
-      <c r="A63" s="21" t="n"/>
-      <c r="B63" s="21" t="n"/>
-      <c r="C63" s="21" t="n"/>
+      <c r="A63" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B63" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C63" s="21" t="inlineStr">
+        <is>
+          <t>Redirigir HTTP a HTTPS</t>
+        </is>
+      </c>
       <c r="D63" s="21" t="n"/>
-      <c r="E63" s="21" t="n"/>
+      <c r="E63" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G63" s="21" t="n"/>
-      <c r="H63" s="15" t="n"/>
+      <c r="H63" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/redirect-overview</t>
+        </is>
+      </c>
       <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
-      <c r="L63" s="25" t="n"/>
+      <c r="L63" s="25" t="inlineStr">
+        <is>
+          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
+        </is>
+      </c>
       <c r="M63" s="25" t="n"/>
       <c r="N63" s="25" t="n"/>
       <c r="O63" s="25" t="n"/>
@@ -7367,7 +7483,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F64" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
@@ -3668,152 +3668,413 @@
       <c r="P63" s="25" t="n"/>
     </row>
     <row r="64" ht="16.5" customHeight="1">
-      <c r="A64" s="21" t="n"/>
-      <c r="B64" s="21" t="n"/>
-      <c r="C64" s="21" t="n"/>
+      <c r="A64" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B64" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C64" s="21" t="inlineStr">
+        <is>
+          <t>Utilice cookies administradas por puerta de enlace para dirigir el tráfico de una sesión de usuario al mismo servidor para su procesamiento</t>
+        </is>
+      </c>
       <c r="D64" s="21" t="n"/>
-      <c r="E64" s="21" t="n"/>
+      <c r="E64" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G64" s="21" t="n"/>
-      <c r="H64" s="15" t="n"/>
+      <c r="H64" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/how-application-gateway-works#modifications-to-the-request</t>
+        </is>
+      </c>
       <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
-      <c r="L64" s="25" t="n"/>
+      <c r="L64" s="25" t="inlineStr">
+        <is>
+          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
+        </is>
+      </c>
       <c r="M64" s="25" t="n"/>
       <c r="N64" s="25" t="n"/>
       <c r="O64" s="25" t="n"/>
       <c r="P64" s="25" t="n"/>
     </row>
     <row r="65" ht="16.5" customHeight="1">
-      <c r="A65" s="21" t="n"/>
-      <c r="B65" s="21" t="n"/>
-      <c r="C65" s="21" t="n"/>
+      <c r="A65" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B65" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C65" s="21" t="inlineStr">
+        <is>
+          <t>Habilite el drenaje de conexiones durante las actualizaciones de servicio planificadas para evitar la pérdida de conexión a los miembros existentes del grupo de back-end</t>
+        </is>
+      </c>
       <c r="D65" s="21" t="n"/>
-      <c r="E65" s="21" t="n"/>
+      <c r="E65" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G65" s="21" t="n"/>
-      <c r="H65" s="15" t="n"/>
+      <c r="H65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-http-settings</t>
+        </is>
+      </c>
       <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
-      <c r="L65" s="25" t="n"/>
+      <c r="L65" s="25" t="inlineStr">
+        <is>
+          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
+        </is>
+      </c>
       <c r="M65" s="25" t="n"/>
       <c r="N65" s="25" t="n"/>
       <c r="O65" s="25" t="n"/>
       <c r="P65" s="25" t="n"/>
     </row>
     <row r="66" ht="16.5" customHeight="1">
-      <c r="A66" s="21" t="n"/>
-      <c r="B66" s="21" t="n"/>
-      <c r="C66" s="21" t="n"/>
+      <c r="A66" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B66" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C66" s="21" t="inlineStr">
+        <is>
+          <t>Crear páginas de error personalizadas para mostrar una experiencia de usuario personalizada</t>
+        </is>
+      </c>
       <c r="D66" s="21" t="n"/>
-      <c r="E66" s="21" t="n"/>
+      <c r="E66" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G66" s="21" t="n"/>
-      <c r="H66" s="15" t="n"/>
+      <c r="H66" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/custom-error</t>
+        </is>
+      </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
-      <c r="L66" s="25" t="n"/>
+      <c r="L66" s="25" t="inlineStr">
+        <is>
+          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
+        </is>
+      </c>
       <c r="M66" s="25" t="n"/>
       <c r="N66" s="25" t="n"/>
       <c r="O66" s="25" t="n"/>
       <c r="P66" s="25" t="n"/>
     </row>
     <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="21" t="n"/>
-      <c r="B67" s="21" t="n"/>
-      <c r="C67" s="21" t="n"/>
+      <c r="A67" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B67" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C67" s="21" t="inlineStr">
+        <is>
+          <t>Edite las solicitudes HTTP y los encabezados de respuesta para facilitar el enrutamiento y el intercambio de información entre el cliente y el servidor</t>
+        </is>
+      </c>
       <c r="D67" s="21" t="n"/>
-      <c r="E67" s="21" t="n"/>
+      <c r="E67" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G67" s="21" t="n"/>
-      <c r="H67" s="15" t="n"/>
+      <c r="H67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/rewrite-http-headers-url</t>
+        </is>
+      </c>
       <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
-      <c r="L67" s="25" t="n"/>
+      <c r="L67" s="25" t="inlineStr">
+        <is>
+          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
+        </is>
+      </c>
       <c r="M67" s="25" t="n"/>
       <c r="N67" s="25" t="n"/>
       <c r="O67" s="25" t="n"/>
       <c r="P67" s="25" t="n"/>
     </row>
     <row r="68" ht="16.5" customHeight="1">
-      <c r="A68" s="21" t="n"/>
-      <c r="B68" s="21" t="n"/>
-      <c r="C68" s="21" t="n"/>
+      <c r="A68" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B68" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C68" s="21" t="inlineStr">
+        <is>
+          <t>Configure Front Door para optimizar el enrutamiento del tráfico web global y el rendimiento del usuario final de primer nivel, así como la confiabilidad a través de una rápida conmutación por error global</t>
+        </is>
+      </c>
       <c r="D68" s="21" t="n"/>
-      <c r="E68" s="21" t="n"/>
+      <c r="E68" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="n"/>
+      <c r="H68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
+        </is>
+      </c>
       <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
-      <c r="L68" s="25" t="n"/>
+      <c r="L68" s="25" t="inlineStr">
+        <is>
+          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
+        </is>
+      </c>
       <c r="M68" s="25" t="n"/>
       <c r="N68" s="25" t="n"/>
       <c r="O68" s="25" t="n"/>
       <c r="P68" s="25" t="n"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
-      <c r="A69" s="21" t="n"/>
-      <c r="B69" s="21" t="n"/>
-      <c r="C69" s="21" t="n"/>
+      <c r="A69" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B69" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C69" s="21" t="inlineStr">
+        <is>
+          <t>Usar el equilibrio de carga de la capa de transporte</t>
+        </is>
+      </c>
       <c r="D69" s="21" t="n"/>
-      <c r="E69" s="21" t="n"/>
+      <c r="E69" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G69" s="21" t="n"/>
-      <c r="H69" s="15" t="n"/>
+      <c r="H69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+        </is>
+      </c>
       <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
-      <c r="L69" s="25" t="n"/>
+      <c r="L69" s="25" t="inlineStr">
+        <is>
+          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
+        </is>
+      </c>
       <c r="M69" s="25" t="n"/>
       <c r="N69" s="25" t="n"/>
       <c r="O69" s="25" t="n"/>
       <c r="P69" s="25" t="n"/>
     </row>
     <row r="70" ht="16.5" customHeight="1">
-      <c r="A70" s="21" t="n"/>
-      <c r="B70" s="21" t="n"/>
-      <c r="C70" s="21" t="n"/>
+      <c r="A70" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B70" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C70" s="21" t="inlineStr">
+        <is>
+          <t>Configure el enrutamiento basado en el host o el nombre de dominio para varias aplicaciones web en una sola puerta de enlace</t>
+        </is>
+      </c>
       <c r="D70" s="21" t="n"/>
-      <c r="E70" s="21" t="n"/>
+      <c r="E70" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G70" s="21" t="n"/>
-      <c r="H70" s="15" t="n"/>
+      <c r="H70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/multiple-site-overview</t>
+        </is>
+      </c>
       <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
-      <c r="L70" s="25" t="n"/>
+      <c r="L70" s="25" t="inlineStr">
+        <is>
+          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
+        </is>
+      </c>
       <c r="M70" s="25" t="n"/>
       <c r="N70" s="25" t="n"/>
       <c r="O70" s="25" t="n"/>
       <c r="P70" s="25" t="n"/>
     </row>
     <row r="71" ht="16.5" customHeight="1">
-      <c r="A71" s="21" t="n"/>
-      <c r="B71" s="21" t="n"/>
-      <c r="C71" s="21" t="n"/>
+      <c r="A71" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B71" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C71" s="21" t="inlineStr">
+        <is>
+          <t>Centralice la administración de certificados SSL para reducir la sobrecarga de cifrado y descifrado de una granja de servidores back-end</t>
+        </is>
+      </c>
       <c r="D71" s="21" t="n"/>
-      <c r="E71" s="21" t="n"/>
+      <c r="E71" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G71" s="21" t="n"/>
-      <c r="H71" s="15" t="n"/>
+      <c r="H71" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/create-ssl-portal</t>
+        </is>
+      </c>
       <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
-      <c r="L71" s="25" t="n"/>
+      <c r="L71" s="25" t="inlineStr">
+        <is>
+          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
+        </is>
+      </c>
       <c r="M71" s="25" t="n"/>
       <c r="N71" s="25" t="n"/>
       <c r="O71" s="25" t="n"/>
       <c r="P71" s="25" t="n"/>
     </row>
     <row r="72" ht="16.5" customHeight="1">
-      <c r="A72" s="21" t="n"/>
-      <c r="B72" s="21" t="n"/>
-      <c r="C72" s="21" t="n"/>
+      <c r="A72" s="21" t="inlineStr">
+        <is>
+          <t>Topología y conectividad de red</t>
+        </is>
+      </c>
+      <c r="B72" s="21" t="inlineStr">
+        <is>
+          <t>Puerta de enlace de aplicaciones</t>
+        </is>
+      </c>
+      <c r="C72" s="21" t="inlineStr">
+        <is>
+          <t>Uso de Application Gateway para obtener compatibilidad nativa con los protocolos WebSocket y HTTP/2</t>
+        </is>
+      </c>
       <c r="D72" s="21" t="n"/>
-      <c r="E72" s="21" t="n"/>
+      <c r="E72" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="n"/>
+      <c r="H72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-websocket</t>
+        </is>
+      </c>
       <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
-      <c r="L72" s="25" t="n"/>
+      <c r="L72" s="25" t="inlineStr">
+        <is>
+          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
+        </is>
+      </c>
       <c r="M72" s="25" t="n"/>
       <c r="N72" s="25" t="n"/>
       <c r="O72" s="25" t="n"/>
@@ -7483,7 +7744,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F64" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F73" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
@@ -1059,7 +1059,7 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
@@ -1105,7 +1105,7 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje tanto para aplicaciones internas (corporativas) como externas (en línea).</t>
+          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje para aplicaciones internas (corporativas) y externas (en línea).</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1155,7 +1155,7 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
@@ -1205,7 +1205,7 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que usa la SKU estándar para Azure Load Balancers</t>
+          <t>Asegúrese de que usa la SKU estándar para los equilibradores de carga de Azure</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1251,7 +1251,7 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las direcciones IP de front-end de Load Balancers tengan redundancia de zona (a menos que necesite front-end zonal).</t>
+          <t>Asegúrese de que las direcciones IP de front-end de los equilibradores de carga sean con redundancia de zona (a menos que necesite front-end zonal).</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1297,7 +1297,7 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
@@ -1347,7 +1347,7 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Implemente Azure Application Gateway v2 o aplicaciones virtuales de red de asociados que se usan para proxy de conexiones HTTP(S) entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que están protegiendo.</t>
+          <t>Implemente Azure Application Gateway v2 o NVA de asociados que se usan para proxy de conexiones HTTP(S) entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que protegen.</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>La administración de proxies inversos en general y de WAF en particular está más cerca de la aplicación que de la red, por lo que pertenecen a la misma suscripción que la aplicación. La centralización de Application Gateway y WAF en la suscripción de conectividad puede ser correcta si la administra un solo equipo.</t>
+          <t>La administración de proxies inversos en general y WAF en particular está más cerca de la aplicación que de la red, por lo que pertenecen a la misma suscripción que la aplicación. La centralización de Application Gateway y WAF en la suscripción de conectividad puede ser correcta si la administra un solo equipo.</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Use una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de la aplicación.</t>
+          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de aplicaciones.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1451,7 +1451,7 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
@@ -1501,7 +1501,7 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
@@ -1551,7 +1551,7 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
@@ -1601,7 +1601,7 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
@@ -1651,7 +1651,7 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
@@ -1701,7 +1701,7 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
@@ -1751,7 +1751,7 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar Microsoft Entra ID Application Proxy para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
+          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de identificador de Microsoft Entra para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1801,7 +1801,7 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Implemente la directiva de WAF para Front Door en modo de "prevención".</t>
+          <t>Implemente la directiva de WAF para Front Door en modo de "Prevención" para que el firewall de aplicaciones web tome las medidas adecuadas para permitir o denegar el tráfico.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1847,7 +1847,7 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de dominio en Azure Front Door y su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
+          <t>Use el mismo nombre de dominio en Azure Front Door y en su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1939,7 +1939,7 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Deshabilite los sondeos de estado cuando solo haya un origen en un grupo de orígenes de Azure Front Door.</t>
+          <t>Deshabilite los sondeos de estado cuando solo haya un origen en un grupo de origen de Azure Front Door.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1985,7 +1985,7 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
@@ -2030,7 +2030,7 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
@@ -2075,7 +2075,7 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Use Azure NAT Gateway en lugar de reglas de salida de Load Balancer para mejorar la escalabilidad de SNAT</t>
+          <t>Use Azure NAT Gateway en lugar de las reglas de salida de Load Balancer para mejorar la escalabilidad de SNAT</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2120,7 +2120,7 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
@@ -2165,7 +2165,7 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
@@ -2210,7 +2210,7 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
@@ -2256,7 +2256,7 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Use el redireccionamiento de HTTP a HTTPS con Azure Front Door. Apoye a los clientes más antiguos redirigiéndolos automáticamente a una solicitud HTTPS.</t>
+          <t>Use el redireccionamiento de HTTP a HTTPS con Azure Front Door. Apoye a los clientes más antiguos redirigiéndolos a una solicitud HTTPS automáticamente.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2302,7 +2302,7 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
@@ -2348,7 +2348,7 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de Azure Front Door para su carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>Ajuste el WAF de Azure Front Door para su carga de trabajo configurando el WAF en modo de detección para reducir y corregir las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2394,7 +2394,7 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
@@ -2440,7 +2440,7 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminados de WAF de Azure Front Door. Los conjuntos de reglas predeterminados detectan y bloquean los ataques comunes.</t>
+          <t>Habilite los conjuntos de reglas predeterminadas de WAF de Azure Front Door. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2486,7 +2486,7 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Habilite el conjunto de reglas de protección contra bots de Azure Front Door WAF. Las reglas de bots detectan bots buenos y malos.</t>
+          <t>Habilite el conjunto de reglas de protección contra bots de WAF de Azure Front Door. Las reglas de bots detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2532,7 +2532,7 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Use la versión más reciente del conjunto de reglas de WAF de Azure Front Door. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Use la versión más reciente del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2578,7 +2578,7 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes que envían accidental o intencionadamente grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Agregue la limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes que envían accidental o intencionalmente grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2624,7 +2624,7 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
@@ -2670,7 +2670,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
@@ -2716,7 +2716,7 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
@@ -2762,7 +2762,7 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Habilitación del conjunto de reglas de protección contra bots de WAF de Azure Application Gateway Las reglas de bots detectan bots buenos y malos.</t>
+          <t>Habilite el conjunto de reglas de protección contra bots de WAF de Azure Application Gateway. Las reglas de bots detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2808,7 +2808,7 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
@@ -2853,7 +2853,7 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de Azure Application Gateway para la carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>Ajuste el WAF de Azure Application Gateway en modo de detección para la carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2899,7 +2899,7 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Implemente la directiva de WAF para Application Gateway en modo de "prevención".</t>
+          <t>Implemente la directiva de WAF para Application Gateway en modo "Prevención".</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2945,7 +2945,7 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Agregue limitación de velocidad al WAF de Azure Application Gateway. La limitación de velocidad bloquea a los clientes que envían accidental o intencionadamente grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Agregue la limitación de velocidad al WAF de Azure Application Gateway. La limitación de velocidad bloquea a los clientes que envían accidental o intencionalmente grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2990,7 +2990,7 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de frecuencia de WAF de Azure Application Gateway. Los umbrales de límite de velocidad altos evitan el bloqueo del tráfico legítimo, a la vez que proporcionan protección contra un número extremadamente alto de solicitudes que podrían sobrecargar su infraestructura. </t>
+          <t xml:space="preserve">Use un umbral alto para los límites de velocidad de WAF de Azure Application Gateway. Los umbrales de límite de velocidad altos evitan el bloqueo del tráfico legítimo, a la vez que proporcionan protección contra un número extremadamente alto de solicitudes que podrían sobrecargar su infraestructura. </t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3035,7 +3035,7 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
@@ -3081,7 +3081,7 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
@@ -3127,7 +3127,7 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
@@ -3173,7 +3173,7 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
@@ -3218,7 +3218,7 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
@@ -3264,7 +3264,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
@@ -3309,7 +3309,7 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
@@ -3354,7 +3354,7 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
@@ -3399,7 +3399,7 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Utilice directivas de WAF en lugar de la configuración de WAF heredada.</t>
+          <t>Utilice las políticas de WAF en lugar de la configuración de WAF heredada.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3444,7 +3444,7 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
@@ -3489,7 +3489,7 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los orígenes solo toman tráfico de la instancia de Azure Front Door.</t>
+          <t>Asegúrese de que los orígenes solo reciben tráfico de la instancia de Azure Front Door.</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3534,7 +3534,7 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
@@ -3579,7 +3579,7 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
@@ -3624,7 +3624,7 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
@@ -3670,7 +3670,7 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
@@ -3716,7 +3716,7 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Habilite el drenaje de conexiones durante las actualizaciones de servicio planificadas para evitar la pérdida de conexión a los miembros existentes del grupo de back-end</t>
+          <t>Habilite el drenaje de conexiones durante las actualizaciones de servicio planeadas para evitar la pérdida de conexión con los miembros existentes del grupo de back-end</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3762,7 +3762,7 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Crear páginas de error personalizadas para mostrar una experiencia de usuario personalizada</t>
+          <t>Cree páginas de error personalizadas para mostrar una experiencia de usuario personalizada</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3807,7 +3807,7 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
@@ -3853,7 +3853,7 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Configure Front Door para optimizar el enrutamiento del tráfico web global y el rendimiento del usuario final de primer nivel, así como la confiabilidad a través de una rápida conmutación por error global</t>
+          <t>Configure Front Door para optimizar el enrutamiento del tráfico web global y el rendimiento y la confiabilidad del usuario final de primer nivel a través de una rápida conmutación por error global</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3899,7 +3899,7 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Usar el equilibrio de carga de la capa de transporte</t>
+          <t>Uso del equilibrio de carga de la capa de transporte</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3945,7 +3945,7 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
@@ -3991,7 +3991,7 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Centralice la administración de certificados SSL para reducir la sobrecarga de cifrado y descifrado de una granja de servidores back-end</t>
+          <t>Centralice la administración de certificados SSL para reducir la sobrecarga de cifrado y descifrado de una granja de servidores backend</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4037,7 +4037,7 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Topología y conectividad de red</t>
+          <t>Topología de red y conectividad</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -7850,7 +7850,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Esta comprobación aún no se ha examinado</t>
+          <t>Este control aún no se ha examinado</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">

--- a/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
@@ -1064,12 +1064,12 @@
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Si usa certificados TLS administrados por el cliente con Azure Front Door, use la versión de certificado "más reciente". Reduzca el riesgo de interrupciones causadas por la renovación manual de certificados</t>
+          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje para aplicaciones internas (corporativas) y externas (en línea).</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,15 +1086,19 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
-        </is>
-      </c>
-      <c r="I8" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J8" s="22" t="n"/>
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>b71ca41b-3a80-48f3-a6cd-22cdf197c1cf</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1110,12 +1114,12 @@
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Realice la entrega de aplicaciones dentro de las zonas de aterrizaje para aplicaciones internas (corporativas) y externas (en línea).</t>
+          <t>Asegúrese de que usa la SKU de Application Gateway v2</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1132,7 +1136,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I9" s="15" t="inlineStr">
@@ -1144,7 +1148,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>b71ca41b-3a80-48f3-a6cd-22cdf197c1cf</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1160,12 +1164,12 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Puerta de enlace de aplicaciones</t>
+          <t>Equilibrador de carga</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que usa la SKU de Application Gateway v2</t>
+          <t>Asegúrese de que usa la SKU estándar para los equilibradores de carga de Azure.</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1182,19 +1186,15 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
-        </is>
-      </c>
-      <c r="I10" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="n"/>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que usa la SKU estándar para los equilibradores de carga de Azure</t>
+          <t>Asegúrese de que las direcciones IP de front-end de Load Balancers sean redundantes de zona (a menos que necesite front-end zonales).</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1232,7 +1232,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-standard-availability-zones</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1240,7 +1240,7 @@
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>Equilibrador de carga</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las direcciones IP de front-end de los equilibradores de carga sean con redundancia de zona (a menos que necesite front-end zonal).</t>
+          <t>Application Gateways v2 debe implementarse en subredes con prefijos IP iguales o mayores que /24</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1278,15 +1278,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-standard-availability-zones</t>
-        </is>
-      </c>
-      <c r="I12" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
+        </is>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1307,10 +1311,14 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Application Gateways v2 debe implementarse en subredes con prefijos IP iguales o mayores que /24</t>
-        </is>
-      </c>
-      <c r="D13" s="21" t="n"/>
+          <t>Implemente Azure Application Gateway v2 o NVA de asociados que se usan para proxy de conexiones HTTP(S) entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que protegen.</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="inlineStr">
+        <is>
+          <t>La administración de proxies inversos en general y WAF en particular está más cerca de la aplicación que de las redes, por lo que pertenecen a la misma suscripción que la aplicación. La centralización de Application Gateway y WAF en la suscripción de conectividad puede ser correcta si la administra un solo equipo.</t>
+        </is>
+      </c>
       <c r="E13" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1324,7 +1332,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
@@ -1336,7 +1344,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1357,14 +1365,10 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Implemente Azure Application Gateway v2 o NVA de asociados que se usan para proxy de conexiones HTTP(S) entrantes dentro de la red virtual de la zona de aterrizaje y con las aplicaciones que protegen.</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="inlineStr">
-        <is>
-          <t>La administración de proxies inversos en general y WAF en particular está más cerca de la aplicación que de la red, por lo que pertenecen a la misma suscripción que la aplicación. La centralización de Application Gateway y WAF en la suscripción de conectividad puede ser correcta si la administra un solo equipo.</t>
-        </is>
-      </c>
+          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de aplicaciones.</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
           <t>Medio</t>
@@ -1383,14 +1387,14 @@
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1411,7 +1415,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Utilice una red DDoS o planes de protección IP para todas las direcciones IP públicas en las zonas de aterrizaje de aplicaciones.</t>
+          <t>Configure el escalado automático con una cantidad mínima de instancias de dos.</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1428,19 +1432,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-autoscaling-zone-redundant</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1461,7 +1465,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Configure el escalado automático con una cantidad mínima de instancias de dos.</t>
+          <t>Implementación de Application Gateway en zonas de disponibilidad</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1478,7 +1482,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-autoscaling-zone-redundant</t>
+          <t>https://learn.microsoft.com/azure/reliability/migrate-app-gateway-v2</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
@@ -1490,7 +1494,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1506,12 +1510,12 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>Puerta de enlace de aplicaciones</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Implementación de Application Gateway en zonas de disponibilidad</t>
+          <t>Al usar Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo desde Front Door.</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1528,19 +1532,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/migrate-app-gateway-v2</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1556,18 +1560,18 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Administrador de tráfico</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Use Azure Front Door con directivas de WAF para entregar y ayudar a proteger aplicaciones HTTP/S globales que abarcan varias regiones de Azure.</t>
+          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1590,7 +1594,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1611,13 +1615,13 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Al usar Front Door y Application Gateway para ayudar a proteger las aplicaciones HTTP/S, use directivas de WAF en Front Door. Bloquee Application Gateway para recibir tráfico solo de Front Door.</t>
+          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Microsoft Entra ID Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1628,19 +1632,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1656,18 +1660,18 @@
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Administrador de tráfico</t>
+          <t>Entrega de aplicaciones</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Use el Administrador de tráfico para entregar aplicaciones globales que abarquen protocolos distintos de HTTP/S.</t>
+          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de Microsoft Entra ID para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1678,19 +1682,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1706,18 +1710,18 @@
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Equilibrador de carga</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Si los usuarios solo necesitan acceso a aplicaciones internas, ¿se ha considerado Microsoft Entra ID Application Proxy como una alternativa a Azure Virtual Desktop (AVD)?</t>
+          <t>Use Azure NAT Gateway en lugar de las reglas de salida de Load Balancer para mejorar la escalabilidad de SNAT</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1728,19 +1732,15 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I21" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+        </is>
+      </c>
+      <c r="I21" s="15" t="n"/>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1756,18 +1756,18 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Entrega de aplicaciones</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Para reducir el número de puertos de firewall abiertos para las conexiones entrantes en la red, considere la posibilidad de usar el proxy de aplicación de identificador de Microsoft Entra para proporcionar a los usuarios remotos acceso seguro y autenticado a las aplicaciones internas.</t>
+          <t>Habilite el conjunto de reglas de protección contra bots de WAF de Azure Application Gateway. Las reglas de bots detectan bots buenos y malos.</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1778,19 +1778,15 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I22" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/bot-protection</t>
+        </is>
+      </c>
+      <c r="I22" s="15" t="n"/>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1806,12 +1802,12 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Implemente la directiva de WAF para Front Door en modo de "Prevención" para que el firewall de aplicaciones web tome las medidas adecuadas para permitir o denegar el tráfico.</t>
+          <t>Asegúrese de que la característica de inspección del cuerpo de la solicitud esté habilitada en la directiva WAF de Azure Application Gateway.</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1828,7 +1824,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-request-size-limits#request-body-inspection</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1836,7 +1832,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1852,12 +1848,12 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Evite combinar Azure Traffic Manager y Azure Front Door.</t>
+          <t>Ajuste el WAF de Azure Application Gateway en modo de detección para la carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1874,7 +1870,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1882,7 +1878,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1898,12 +1894,12 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de dominio en Azure Front Door y en su origen. Los nombres de host no coincidentes pueden causar errores sutiles.</t>
+          <t>Implemente la directiva de WAF para Application Gateway en modo "Prevención".</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1920,7 +1916,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/policy-overview?source=recommendations</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1928,7 +1924,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1944,18 +1940,18 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Deshabilite los sondeos de estado cuando solo haya un origen en un grupo de origen de Azure Front Door.</t>
+          <t>Agregue limitación de velocidad al WAF de Azure Application Gateway. La limitación de velocidad bloquea a los clientes que envían accidental o intencionalmente grandes cantidades de tráfico en un corto período de tiempo.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1966,7 +1962,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1974,7 +1970,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1990,12 +1986,12 @@
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Seleccione puntos de conexión de sondeo de estado correctos para Azure Front Door. Considere la posibilidad de crear puntos de conexión de estado que comprueben todas las dependencias de la aplicación.</t>
+          <t xml:space="preserve">Use un umbral alto para los límites de velocidad de WAF de Azure Application Gateway. Los umbrales de límite de velocidad altos evitan bloquear el tráfico legítimo, a la vez que proporcionan protección contra un número extremadamente alto de solicitudes que podrían sobrecargar su infraestructura. </t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2012,14 +2008,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview#rate-limiting-details</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2035,12 +2031,12 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Use sondeos de estado de HEAD con Azure Front Door para reducir el tráfico que Front Door envía a la aplicación.</t>
+          <t>Si no espera tráfico de todas las regiones geográficas, utilice filtros geográficos para bloquear el tráfico de países no esperados.</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2057,14 +2053,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#geo-filtering-best-practices</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2080,18 +2076,18 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Equilibrador de carga</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Use Azure NAT Gateway en lugar de las reglas de salida de Load Balancer para mejorar la escalabilidad de SNAT</t>
+          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con el WAF de Azure Application Gateway. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no puedan coincidir geográficamente.</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2102,14 +2098,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/geomatch-custom-rules</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2125,18 +2121,18 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Use certificados TLS administrados con Azure Front Door. Reduzca los costos operativos y el riesgo de interrupciones debido a las renovaciones de certificados.</t>
+          <t>Use la versión más reciente del conjunto de reglas WAF de Azure Application Gateway. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2147,14 +2143,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2170,12 +2166,12 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Defina la configuración de WAF de Azure Front Door como código. Mediante el uso de código, puede adoptar más fácilmente una nueva versión del conjunto de reglas y obtener protección adicional.</t>
+          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Application Gateway.</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2192,14 +2188,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2215,18 +2211,18 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Use TLS de un extremo a otro con Azure Front Door. Use TLS para las conexiones de los clientes a Front Door y de Front Door al origen.</t>
+          <t>Envíe registros de WAF de Azure Application Gateway a Microsoft Sentinel.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2237,7 +2233,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2245,7 +2241,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2261,12 +2257,12 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Use el redireccionamiento de HTTP a HTTPS con Azure Front Door. Apoye a los clientes más antiguos redirigiéndolos a una solicitud HTTPS automáticamente.</t>
+          <t>Defina la configuración de WAF de Azure Application Gateway como código. Mediante el uso de código, puede adoptar más fácilmente una nueva versión del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2283,7 +2279,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2291,7 +2287,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2307,18 +2303,18 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Habilite el WAF de Azure Front Door. Proteja su aplicación de una variedad de ataques.</t>
+          <t>Utilice directivas de WAF en lugar de la configuración de WAF heredada.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2329,7 +2325,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/policy-overview</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2337,7 +2333,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2353,18 +2349,18 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de Azure Front Door para su carga de trabajo configurando el WAF en modo de detección para reducir y corregir las detecciones de falsos positivos.</t>
+          <t>Filtre el tráfico entrante en los back-end para que solo acepten conexiones de la subred de Application Gateway, por ejemplo, con grupos de seguridad de red.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2375,7 +2371,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-secured-hub-app-gateway</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2383,7 +2379,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2399,12 +2395,12 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Habilite la característica de inspección del cuerpo de la solicitud habilitada en la directiva WAF de Azure Front Door.</t>
+          <t>Debe cifrar el tráfico a los servidores backend.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2421,7 +2417,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-request-size-limits#request-body-inspection</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/ssl-overview</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2429,7 +2425,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2445,12 +2441,12 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Habilite los conjuntos de reglas predeterminadas de WAF de Azure Front Door. Los conjuntos de reglas predeterminados detectan y bloquean ataques comunes.</t>
+          <t>Debe utilizar un firewall de aplicaciones web.</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2467,7 +2463,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/overview</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2475,7 +2471,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2491,18 +2487,18 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Habilite el conjunto de reglas de protección contra bots de WAF de Azure Front Door. Las reglas de bots detectan bots buenos y malos.</t>
+          <t>Redirigir HTTP a HTTPS</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2513,7 +2509,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/redirect-overview</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2521,7 +2517,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2537,12 +2533,12 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Use la versión más reciente del conjunto de reglas de Azure Front Door WAF. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
+          <t>Utilice cookies administradas por puerta de enlace para dirigir el tráfico de una sesión de usuario al mismo servidor para su procesamiento</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2559,7 +2555,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/how-application-gateway-works#modifications-to-the-request</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2567,7 +2563,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2583,18 +2579,18 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Agregue la limitación de velocidad al WAF de Azure Front Door. La limitación de velocidad bloquea a los clientes que envían accidental o intencionalmente grandes cantidades de tráfico en un corto período de tiempo.</t>
+          <t>Habilite el drenaje de conexiones durante las actualizaciones de servicio planeadas para evitar la pérdida de conexión con los miembros existentes del grupo de back-end</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2605,7 +2601,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-http-settings</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2613,7 +2609,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2629,18 +2625,18 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de frecuencia de WAF de Azure Front Door. Los umbrales de límite de velocidad altos evitan el bloqueo del tráfico legítimo, a la vez que proporcionan protección contra un número extremadamente alto de solicitudes que podrían sobrecargar su infraestructura. </t>
+          <t>Cree páginas de error personalizadas para mostrar una experiencia de usuario personalizada</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2651,7 +2647,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/custom-error</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2659,7 +2655,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2675,18 +2671,18 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Si no espera tráfico de todas las regiones geográficas, utilice filtros geográficos para bloquear el tráfico de países no esperados.</t>
+          <t>Edite las solicitudes HTTP y los encabezados de respuesta para facilitar el enrutamiento y el intercambio de información entre el cliente y el servidor</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2697,7 +2693,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/rewrite-http-headers-url</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2705,7 +2701,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2721,12 +2717,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Puerta</t>
+          <t>Puerta de enlace de aplicaciones</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con el WAF de Azure Front Door. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no puedan coincidir geográficamente.</t>
+          <t>Configure Front Door para optimizar el enrutamiento del tráfico web global y el rendimiento del usuario final de primer nivel, así como la confiabilidad a través de una rápida conmutación por error global</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2743,7 +2739,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2751,7 +2747,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2772,13 +2768,13 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Habilite el conjunto de reglas de protección contra bots de WAF de Azure Application Gateway. Las reglas de bots detectan bots buenos y malos.</t>
+          <t>Usar el equilibrio de carga de la capa de transporte</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
       <c r="E44" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2789,7 +2785,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/bot-protection</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2797,7 +2793,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
+          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2818,13 +2814,13 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Habilite la característica de inspección del cuerpo de la solicitud habilitada en la directiva WAF de Azure Application Gateway.</t>
+          <t>Configure el enrutamiento basado en el host o el nombre de dominio para varias aplicaciones web en una sola puerta de enlace</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2835,14 +2831,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-request-size-limits#request-body-inspection</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/multiple-site-overview</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
+          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2863,13 +2859,13 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Ajuste el WAF de Azure Application Gateway en modo de detección para la carga de trabajo. Reduzca las detecciones de falsos positivos.</t>
+          <t>Centralice la administración de certificados SSL para reducir la sobrecarga de cifrado y descifrado de una granja de servidores back-end</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2880,7 +2876,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/create-ssl-portal</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2888,7 +2884,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
+          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2909,13 +2905,13 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Implemente la directiva de WAF para Application Gateway en modo "Prevención".</t>
+          <t>Use Application Gateway para obtener compatibilidad nativa con los protocolos WebSocket y HTTP/2</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2926,7 +2922,7 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-websocket</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -2934,7 +2930,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
+          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2943,1138 +2939,413 @@
       <c r="P47" s="25" t="n"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B48" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C48" s="21" t="inlineStr">
-        <is>
-          <t>Agregue la limitación de velocidad al WAF de Azure Application Gateway. La limitación de velocidad bloquea a los clientes que envían accidental o intencionalmente grandes cantidades de tráfico en un corto período de tiempo.</t>
-        </is>
-      </c>
+      <c r="A48" s="21" t="n"/>
+      <c r="B48" s="21" t="n"/>
+      <c r="C48" s="21" t="n"/>
       <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E48" s="21" t="n"/>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview</t>
-        </is>
-      </c>
+      <c r="H48" s="15" t="n"/>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
-      <c r="L48" s="25" t="inlineStr">
-        <is>
-          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
-        </is>
-      </c>
+      <c r="L48" s="25" t="n"/>
       <c r="M48" s="25" t="n"/>
       <c r="N48" s="25" t="n"/>
       <c r="O48" s="25" t="n"/>
       <c r="P48" s="25" t="n"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B49" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C49" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de velocidad de WAF de Azure Application Gateway. Los umbrales de límite de velocidad altos evitan el bloqueo del tráfico legítimo, a la vez que proporcionan protección contra un número extremadamente alto de solicitudes que podrían sobrecargar su infraestructura. </t>
-        </is>
-      </c>
+      <c r="A49" s="21" t="n"/>
+      <c r="B49" s="21" t="n"/>
+      <c r="C49" s="21" t="n"/>
       <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E49" s="21" t="n"/>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/rate-limiting-overview#rate-limiting-details</t>
-        </is>
-      </c>
+      <c r="H49" s="15" t="n"/>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
-      <c r="L49" s="25" t="inlineStr">
-        <is>
-          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
-        </is>
-      </c>
+      <c r="L49" s="25" t="n"/>
       <c r="M49" s="25" t="n"/>
       <c r="N49" s="25" t="n"/>
       <c r="O49" s="25" t="n"/>
       <c r="P49" s="25" t="n"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B50" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C50" s="21" t="inlineStr">
-        <is>
-          <t>Si no espera tráfico de todas las regiones geográficas, utilice filtros geográficos para bloquear el tráfico de países no esperados.</t>
-        </is>
-      </c>
+      <c r="A50" s="21" t="n"/>
+      <c r="B50" s="21" t="n"/>
+      <c r="C50" s="21" t="n"/>
       <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E50" s="21" t="n"/>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#geo-filtering-best-practices</t>
-        </is>
-      </c>
+      <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
-      <c r="L50" s="25" t="inlineStr">
-        <is>
-          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
-        </is>
-      </c>
+      <c r="L50" s="25" t="n"/>
       <c r="M50" s="25" t="n"/>
       <c r="N50" s="25" t="n"/>
       <c r="O50" s="25" t="n"/>
       <c r="P50" s="25" t="n"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B51" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C51" s="21" t="inlineStr">
-        <is>
-          <t>Especifique la ubicación desconocida (ZZ) al filtrar geográficamente el tráfico con el WAF de Azure Application Gateway. Evite bloquear accidentalmente solicitudes legítimas cuando las direcciones IP no puedan coincidir geográficamente.</t>
-        </is>
-      </c>
+      <c r="A51" s="21" t="n"/>
+      <c r="B51" s="21" t="n"/>
+      <c r="C51" s="21" t="n"/>
       <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E51" s="21" t="n"/>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/geomatch-custom-rules</t>
-        </is>
-      </c>
+      <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="inlineStr">
-        <is>
-          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
-        </is>
-      </c>
+      <c r="L51" s="25" t="n"/>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
       <c r="P51" s="25" t="n"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B52" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C52" s="21" t="inlineStr">
-        <is>
-          <t>Use la versión más reciente del conjunto de reglas de WAF de Azure Application Gateway. Las actualizaciones del conjunto de reglas se actualizan periódicamente para tener en cuenta el panorama actual de amenazas.</t>
-        </is>
-      </c>
+      <c r="A52" s="21" t="n"/>
+      <c r="B52" s="21" t="n"/>
+      <c r="C52" s="21" t="n"/>
       <c r="D52" s="21" t="n"/>
-      <c r="E52" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E52" s="21" t="n"/>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#use-the-latest-ruleset-versions</t>
-        </is>
-      </c>
+      <c r="H52" s="15" t="n"/>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
-      <c r="L52" s="25" t="inlineStr">
-        <is>
-          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
-        </is>
-      </c>
+      <c r="L52" s="25" t="n"/>
       <c r="M52" s="25" t="n"/>
       <c r="N52" s="25" t="n"/>
       <c r="O52" s="25" t="n"/>
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B53" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C53" s="21" t="inlineStr">
-        <is>
-          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Application Gateway.</t>
-        </is>
-      </c>
+      <c r="A53" s="21" t="n"/>
+      <c r="B53" s="21" t="n"/>
+      <c r="C53" s="21" t="n"/>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E53" s="21" t="n"/>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
-        </is>
-      </c>
+      <c r="H53" s="15" t="n"/>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="inlineStr">
-        <is>
-          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
-        </is>
-      </c>
+      <c r="L53" s="25" t="n"/>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
       <c r="P53" s="25" t="n"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B54" s="21" t="inlineStr">
-        <is>
-          <t>Puerta</t>
-        </is>
-      </c>
-      <c r="C54" s="21" t="inlineStr">
-        <is>
-          <t>Agregue la configuración de diagnóstico para guardar los registros de WAF de Azure Front Door.</t>
-        </is>
-      </c>
+      <c r="A54" s="21" t="n"/>
+      <c r="B54" s="21" t="n"/>
+      <c r="C54" s="21" t="n"/>
       <c r="D54" s="21" t="n"/>
-      <c r="E54" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E54" s="21" t="n"/>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
-        </is>
-      </c>
+      <c r="H54" s="15" t="n"/>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
-      <c r="L54" s="25" t="inlineStr">
-        <is>
-          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
-        </is>
-      </c>
+      <c r="L54" s="25" t="n"/>
       <c r="M54" s="25" t="n"/>
       <c r="N54" s="25" t="n"/>
       <c r="O54" s="25" t="n"/>
       <c r="P54" s="25" t="n"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B55" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C55" s="21" t="inlineStr">
-        <is>
-          <t>Envíe registros de WAF de Azure Application Gateway a Microsoft Sentinel.</t>
-        </is>
-      </c>
+      <c r="A55" s="21" t="n"/>
+      <c r="B55" s="21" t="n"/>
+      <c r="C55" s="21" t="n"/>
       <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E55" s="21" t="n"/>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#send-logs-to-microsoft-sentinel</t>
-        </is>
-      </c>
+      <c r="H55" s="15" t="n"/>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
-      <c r="L55" s="25" t="inlineStr">
-        <is>
-          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
-        </is>
-      </c>
+      <c r="L55" s="25" t="n"/>
       <c r="M55" s="25" t="n"/>
       <c r="N55" s="25" t="n"/>
       <c r="O55" s="25" t="n"/>
       <c r="P55" s="25" t="n"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B56" s="21" t="inlineStr">
-        <is>
-          <t>Puerta</t>
-        </is>
-      </c>
-      <c r="C56" s="21" t="inlineStr">
-        <is>
-          <t>Envíe registros de WAF de Azure Front Door a Microsoft Sentinel.</t>
-        </is>
-      </c>
+      <c r="A56" s="21" t="n"/>
+      <c r="B56" s="21" t="n"/>
+      <c r="C56" s="21" t="n"/>
       <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E56" s="21" t="n"/>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
-        </is>
-      </c>
+      <c r="H56" s="15" t="n"/>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
-      <c r="L56" s="25" t="inlineStr">
-        <is>
-          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
-        </is>
-      </c>
+      <c r="L56" s="25" t="n"/>
       <c r="M56" s="25" t="n"/>
       <c r="N56" s="25" t="n"/>
       <c r="O56" s="25" t="n"/>
       <c r="P56" s="25" t="n"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B57" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C57" s="21" t="inlineStr">
-        <is>
-          <t>Defina la configuración de WAF de Azure Application Gateway como código. Mediante el uso de código, puede adoptar más fácilmente una nueva versión del conjunto de reglas y obtener protección adicional.</t>
-        </is>
-      </c>
+      <c r="A57" s="21" t="n"/>
+      <c r="B57" s="21" t="n"/>
+      <c r="C57" s="21" t="n"/>
       <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E57" s="21" t="n"/>
       <c r="G57" s="21" t="n"/>
-      <c r="H57" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/best-practices#define-your-waf-configuration-as-code</t>
-        </is>
-      </c>
+      <c r="H57" s="15" t="n"/>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
-      <c r="L57" s="25" t="inlineStr">
-        <is>
-          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
-        </is>
-      </c>
+      <c r="L57" s="25" t="n"/>
       <c r="M57" s="25" t="n"/>
       <c r="N57" s="25" t="n"/>
       <c r="O57" s="25" t="n"/>
       <c r="P57" s="25" t="n"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B58" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C58" s="21" t="inlineStr">
-        <is>
-          <t>Utilice las políticas de WAF en lugar de la configuración de WAF heredada.</t>
-        </is>
-      </c>
+      <c r="A58" s="21" t="n"/>
+      <c r="B58" s="21" t="n"/>
+      <c r="C58" s="21" t="n"/>
       <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E58" s="21" t="n"/>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/policy-overview</t>
-        </is>
-      </c>
+      <c r="H58" s="15" t="n"/>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
-      <c r="L58" s="25" t="inlineStr">
-        <is>
-          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
-        </is>
-      </c>
+      <c r="L58" s="25" t="n"/>
       <c r="M58" s="25" t="n"/>
       <c r="N58" s="25" t="n"/>
       <c r="O58" s="25" t="n"/>
       <c r="P58" s="25" t="n"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B59" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C59" s="21" t="inlineStr">
-        <is>
-          <t>Filtre el tráfico entrante en los back-end para que solo acepten conexiones de la subred de Application Gateway, por ejemplo, con grupos de seguridad de red.</t>
-        </is>
-      </c>
+      <c r="A59" s="21" t="n"/>
+      <c r="B59" s="21" t="n"/>
+      <c r="C59" s="21" t="n"/>
       <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E59" s="21" t="n"/>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-secured-hub-app-gateway</t>
-        </is>
-      </c>
+      <c r="H59" s="15" t="n"/>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
-      <c r="L59" s="25" t="inlineStr">
-        <is>
-          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
-        </is>
-      </c>
+      <c r="L59" s="25" t="n"/>
       <c r="M59" s="25" t="n"/>
       <c r="N59" s="25" t="n"/>
       <c r="O59" s="25" t="n"/>
       <c r="P59" s="25" t="n"/>
     </row>
     <row r="60" ht="16.5" customHeight="1">
-      <c r="A60" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B60" s="21" t="inlineStr">
-        <is>
-          <t>Puerta</t>
-        </is>
-      </c>
-      <c r="C60" s="21" t="inlineStr">
-        <is>
-          <t>Asegúrese de que los orígenes solo reciben tráfico de la instancia de Azure Front Door.</t>
-        </is>
-      </c>
+      <c r="A60" s="21" t="n"/>
+      <c r="B60" s="21" t="n"/>
+      <c r="C60" s="21" t="n"/>
       <c r="D60" s="21" t="n"/>
-      <c r="E60" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E60" s="21" t="n"/>
       <c r="G60" s="21" t="n"/>
-      <c r="H60" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/origin-security?tabs=app-service-functions</t>
-        </is>
-      </c>
+      <c r="H60" s="15" t="n"/>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
-      <c r="L60" s="25" t="inlineStr">
-        <is>
-          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
-        </is>
-      </c>
+      <c r="L60" s="25" t="n"/>
       <c r="M60" s="25" t="n"/>
       <c r="N60" s="25" t="n"/>
       <c r="O60" s="25" t="n"/>
       <c r="P60" s="25" t="n"/>
     </row>
     <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B61" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C61" s="21" t="inlineStr">
-        <is>
-          <t>Debe cifrar el tráfico a los servidores backend.</t>
-        </is>
-      </c>
+      <c r="A61" s="21" t="n"/>
+      <c r="B61" s="21" t="n"/>
+      <c r="C61" s="21" t="n"/>
       <c r="D61" s="21" t="n"/>
-      <c r="E61" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E61" s="21" t="n"/>
       <c r="G61" s="21" t="n"/>
-      <c r="H61" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/ssl-overview</t>
-        </is>
-      </c>
+      <c r="H61" s="15" t="n"/>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
-      <c r="L61" s="25" t="inlineStr">
-        <is>
-          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
-        </is>
-      </c>
+      <c r="L61" s="25" t="n"/>
       <c r="M61" s="25" t="n"/>
       <c r="N61" s="25" t="n"/>
       <c r="O61" s="25" t="n"/>
       <c r="P61" s="25" t="n"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B62" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C62" s="21" t="inlineStr">
-        <is>
-          <t>Debe utilizar un firewall de aplicaciones web.</t>
-        </is>
-      </c>
+      <c r="A62" s="21" t="n"/>
+      <c r="B62" s="21" t="n"/>
+      <c r="C62" s="21" t="n"/>
       <c r="D62" s="21" t="n"/>
-      <c r="E62" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E62" s="21" t="n"/>
       <c r="G62" s="21" t="n"/>
-      <c r="H62" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/overview</t>
-        </is>
-      </c>
+      <c r="H62" s="15" t="n"/>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
-      <c r="L62" s="25" t="inlineStr">
-        <is>
-          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
-        </is>
-      </c>
+      <c r="L62" s="25" t="n"/>
       <c r="M62" s="25" t="n"/>
       <c r="N62" s="25" t="n"/>
       <c r="O62" s="25" t="n"/>
       <c r="P62" s="25" t="n"/>
     </row>
     <row r="63" ht="16.5" customHeight="1">
-      <c r="A63" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B63" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C63" s="21" t="inlineStr">
-        <is>
-          <t>Redirigir HTTP a HTTPS</t>
-        </is>
-      </c>
+      <c r="A63" s="21" t="n"/>
+      <c r="B63" s="21" t="n"/>
+      <c r="C63" s="21" t="n"/>
       <c r="D63" s="21" t="n"/>
-      <c r="E63" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E63" s="21" t="n"/>
       <c r="G63" s="21" t="n"/>
-      <c r="H63" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/redirect-overview</t>
-        </is>
-      </c>
+      <c r="H63" s="15" t="n"/>
       <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
-      <c r="L63" s="25" t="inlineStr">
-        <is>
-          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
-        </is>
-      </c>
+      <c r="L63" s="25" t="n"/>
       <c r="M63" s="25" t="n"/>
       <c r="N63" s="25" t="n"/>
       <c r="O63" s="25" t="n"/>
       <c r="P63" s="25" t="n"/>
     </row>
     <row r="64" ht="16.5" customHeight="1">
-      <c r="A64" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B64" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C64" s="21" t="inlineStr">
-        <is>
-          <t>Utilice cookies administradas por puerta de enlace para dirigir el tráfico de una sesión de usuario al mismo servidor para su procesamiento</t>
-        </is>
-      </c>
+      <c r="A64" s="21" t="n"/>
+      <c r="B64" s="21" t="n"/>
+      <c r="C64" s="21" t="n"/>
       <c r="D64" s="21" t="n"/>
-      <c r="E64" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E64" s="21" t="n"/>
       <c r="G64" s="21" t="n"/>
-      <c r="H64" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/how-application-gateway-works#modifications-to-the-request</t>
-        </is>
-      </c>
+      <c r="H64" s="15" t="n"/>
       <c r="I64" s="15" t="n"/>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
-      <c r="L64" s="25" t="inlineStr">
-        <is>
-          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
-        </is>
-      </c>
+      <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
       <c r="N64" s="25" t="n"/>
       <c r="O64" s="25" t="n"/>
       <c r="P64" s="25" t="n"/>
     </row>
     <row r="65" ht="16.5" customHeight="1">
-      <c r="A65" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B65" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C65" s="21" t="inlineStr">
-        <is>
-          <t>Habilite el drenaje de conexiones durante las actualizaciones de servicio planeadas para evitar la pérdida de conexión con los miembros existentes del grupo de back-end</t>
-        </is>
-      </c>
+      <c r="A65" s="21" t="n"/>
+      <c r="B65" s="21" t="n"/>
+      <c r="C65" s="21" t="n"/>
       <c r="D65" s="21" t="n"/>
-      <c r="E65" s="21" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E65" s="21" t="n"/>
       <c r="G65" s="21" t="n"/>
-      <c r="H65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-http-settings</t>
-        </is>
-      </c>
+      <c r="H65" s="15" t="n"/>
       <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
-      <c r="L65" s="25" t="inlineStr">
-        <is>
-          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
-        </is>
-      </c>
+      <c r="L65" s="25" t="n"/>
       <c r="M65" s="25" t="n"/>
       <c r="N65" s="25" t="n"/>
       <c r="O65" s="25" t="n"/>
       <c r="P65" s="25" t="n"/>
     </row>
     <row r="66" ht="16.5" customHeight="1">
-      <c r="A66" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B66" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C66" s="21" t="inlineStr">
-        <is>
-          <t>Cree páginas de error personalizadas para mostrar una experiencia de usuario personalizada</t>
-        </is>
-      </c>
+      <c r="A66" s="21" t="n"/>
+      <c r="B66" s="21" t="n"/>
+      <c r="C66" s="21" t="n"/>
       <c r="D66" s="21" t="n"/>
-      <c r="E66" s="21" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E66" s="21" t="n"/>
       <c r="G66" s="21" t="n"/>
-      <c r="H66" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/custom-error</t>
-        </is>
-      </c>
+      <c r="H66" s="15" t="n"/>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
-      <c r="L66" s="25" t="inlineStr">
-        <is>
-          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
-        </is>
-      </c>
+      <c r="L66" s="25" t="n"/>
       <c r="M66" s="25" t="n"/>
       <c r="N66" s="25" t="n"/>
       <c r="O66" s="25" t="n"/>
       <c r="P66" s="25" t="n"/>
     </row>
     <row r="67" ht="16.5" customHeight="1">
-      <c r="A67" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B67" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C67" s="21" t="inlineStr">
-        <is>
-          <t>Edite las solicitudes HTTP y los encabezados de respuesta para facilitar el enrutamiento y el intercambio de información entre el cliente y el servidor</t>
-        </is>
-      </c>
+      <c r="A67" s="21" t="n"/>
+      <c r="B67" s="21" t="n"/>
+      <c r="C67" s="21" t="n"/>
       <c r="D67" s="21" t="n"/>
-      <c r="E67" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E67" s="21" t="n"/>
       <c r="G67" s="21" t="n"/>
-      <c r="H67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/rewrite-http-headers-url</t>
-        </is>
-      </c>
+      <c r="H67" s="15" t="n"/>
       <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
-      <c r="L67" s="25" t="inlineStr">
-        <is>
-          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
-        </is>
-      </c>
+      <c r="L67" s="25" t="n"/>
       <c r="M67" s="25" t="n"/>
       <c r="N67" s="25" t="n"/>
       <c r="O67" s="25" t="n"/>
       <c r="P67" s="25" t="n"/>
     </row>
     <row r="68" ht="16.5" customHeight="1">
-      <c r="A68" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B68" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C68" s="21" t="inlineStr">
-        <is>
-          <t>Configure Front Door para optimizar el enrutamiento del tráfico web global y el rendimiento y la confiabilidad del usuario final de primer nivel a través de una rápida conmutación por error global</t>
-        </is>
-      </c>
+      <c r="A68" s="21" t="n"/>
+      <c r="B68" s="21" t="n"/>
+      <c r="C68" s="21" t="n"/>
       <c r="D68" s="21" t="n"/>
-      <c r="E68" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E68" s="21" t="n"/>
       <c r="G68" s="21" t="n"/>
-      <c r="H68" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/front-door-overview</t>
-        </is>
-      </c>
+      <c r="H68" s="15" t="n"/>
       <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
-      <c r="L68" s="25" t="inlineStr">
-        <is>
-          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
-        </is>
-      </c>
+      <c r="L68" s="25" t="n"/>
       <c r="M68" s="25" t="n"/>
       <c r="N68" s="25" t="n"/>
       <c r="O68" s="25" t="n"/>
       <c r="P68" s="25" t="n"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
-      <c r="A69" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B69" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C69" s="21" t="inlineStr">
-        <is>
-          <t>Uso del equilibrio de carga de la capa de transporte</t>
-        </is>
-      </c>
+      <c r="A69" s="21" t="n"/>
+      <c r="B69" s="21" t="n"/>
+      <c r="C69" s="21" t="n"/>
       <c r="D69" s="21" t="n"/>
-      <c r="E69" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E69" s="21" t="n"/>
       <c r="G69" s="21" t="n"/>
-      <c r="H69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
-        </is>
-      </c>
+      <c r="H69" s="15" t="n"/>
       <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
-      <c r="L69" s="25" t="inlineStr">
-        <is>
-          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
-        </is>
-      </c>
+      <c r="L69" s="25" t="n"/>
       <c r="M69" s="25" t="n"/>
       <c r="N69" s="25" t="n"/>
       <c r="O69" s="25" t="n"/>
       <c r="P69" s="25" t="n"/>
     </row>
     <row r="70" ht="16.5" customHeight="1">
-      <c r="A70" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B70" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C70" s="21" t="inlineStr">
-        <is>
-          <t>Configure el enrutamiento basado en el host o el nombre de dominio para varias aplicaciones web en una sola puerta de enlace</t>
-        </is>
-      </c>
+      <c r="A70" s="21" t="n"/>
+      <c r="B70" s="21" t="n"/>
+      <c r="C70" s="21" t="n"/>
       <c r="D70" s="21" t="n"/>
-      <c r="E70" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E70" s="21" t="n"/>
       <c r="G70" s="21" t="n"/>
-      <c r="H70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/multiple-site-overview</t>
-        </is>
-      </c>
+      <c r="H70" s="15" t="n"/>
       <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
-      <c r="L70" s="25" t="inlineStr">
-        <is>
-          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
-        </is>
-      </c>
+      <c r="L70" s="25" t="n"/>
       <c r="M70" s="25" t="n"/>
       <c r="N70" s="25" t="n"/>
       <c r="O70" s="25" t="n"/>
       <c r="P70" s="25" t="n"/>
     </row>
     <row r="71" ht="16.5" customHeight="1">
-      <c r="A71" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B71" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C71" s="21" t="inlineStr">
-        <is>
-          <t>Centralice la administración de certificados SSL para reducir la sobrecarga de cifrado y descifrado de una granja de servidores backend</t>
-        </is>
-      </c>
+      <c r="A71" s="21" t="n"/>
+      <c r="B71" s="21" t="n"/>
+      <c r="C71" s="21" t="n"/>
       <c r="D71" s="21" t="n"/>
-      <c r="E71" s="21" t="inlineStr">
-        <is>
-          <t>Medio</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E71" s="21" t="n"/>
       <c r="G71" s="21" t="n"/>
-      <c r="H71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/create-ssl-portal</t>
-        </is>
-      </c>
+      <c r="H71" s="15" t="n"/>
       <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
-      <c r="L71" s="25" t="inlineStr">
-        <is>
-          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
-        </is>
-      </c>
+      <c r="L71" s="25" t="n"/>
       <c r="M71" s="25" t="n"/>
       <c r="N71" s="25" t="n"/>
       <c r="O71" s="25" t="n"/>
       <c r="P71" s="25" t="n"/>
     </row>
     <row r="72" ht="16.5" customHeight="1">
-      <c r="A72" s="21" t="inlineStr">
-        <is>
-          <t>Topología de red y conectividad</t>
-        </is>
-      </c>
-      <c r="B72" s="21" t="inlineStr">
-        <is>
-          <t>Puerta de enlace de aplicaciones</t>
-        </is>
-      </c>
-      <c r="C72" s="21" t="inlineStr">
-        <is>
-          <t>Uso de Application Gateway para obtener compatibilidad nativa con los protocolos WebSocket y HTTP/2</t>
-        </is>
-      </c>
+      <c r="A72" s="21" t="n"/>
+      <c r="B72" s="21" t="n"/>
+      <c r="C72" s="21" t="n"/>
       <c r="D72" s="21" t="n"/>
-      <c r="E72" s="21" t="inlineStr">
-        <is>
-          <t>Bajo</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>No verificado</t>
-        </is>
-      </c>
+      <c r="E72" s="21" t="n"/>
       <c r="G72" s="21" t="n"/>
-      <c r="H72" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/application-gateway-websocket</t>
-        </is>
-      </c>
+      <c r="H72" s="15" t="n"/>
       <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
-      <c r="L72" s="25" t="inlineStr">
-        <is>
-          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
-        </is>
-      </c>
+      <c r="L72" s="25" t="n"/>
       <c r="M72" s="25" t="n"/>
       <c r="N72" s="25" t="n"/>
       <c r="O72" s="25" t="n"/>
@@ -7744,7 +7015,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F73" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F48" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7850,7 +7121,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Este control aún no se ha examinado</t>
+          <t>Esta comprobación aún no se ha examinado</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -7911,7 +7182,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Recomendación entendida, pero no necesaria por los requisitos actuales</t>
+          <t>Recomendación comprendida, pero no necesaria por los requisitos actuales</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">

--- a/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
+++ b/spreadsheet/macrofree/network_appdelivery_checklist.es.xlsx
@@ -1169,7 +1169,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que usa la SKU estándar para los equilibradores de carga de Azure.</t>
+          <t>Asegúrese de que usa la SKU estándar para Azure Load Balancers</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las direcciones IP de front-end de Load Balancers sean redundantes de zona (a menos que necesite front-end zonales).</t>
+          <t>Asegúrese de que las direcciones IP de front-end de los equilibradores de carga tengan redundancia de zona (a menos que necesite front-end zonales).</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1382,7 +1382,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/tutorial-protect-application-gateway-ddos</t>
         </is>
       </c>
       <c r="I14" s="15" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use un umbral alto para los límites de velocidad de WAF de Azure Application Gateway. Los umbrales de límite de velocidad altos evitan bloquear el tráfico legítimo, a la vez que proporcionan protección contra un número extremadamente alto de solicitudes que podrían sobrecargar su infraestructura. </t>
+          <t xml:space="preserve">Use un umbral alto para los límites de frecuencia de WAF de Azure Application Gateway. Los umbrales de límite de velocidad altos evitan bloquear el tráfico legítimo, al tiempo que brindan protección contra un número extremadamente alto de solicitudes que podrían sobrecargar su infraestructura. </t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Defina la configuración de WAF de Azure Application Gateway como código. Mediante el uso de código, puede adoptar más fácilmente una nueva versión del conjunto de reglas y obtener protección adicional.</t>
+          <t>Defina la configuración de WAF de Azure Application Gateway como código. Mediante el uso de código, puede adoptar más fácilmente la nueva versión del conjunto de reglas y obtener protección adicional.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Utilice directivas de WAF en lugar de la configuración de WAF heredada.</t>
+          <t>Utilice las políticas de WAF en lugar de la configuración de WAF heredada.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Redirigir HTTP a HTTPS</t>
+          <t>Redireccionar HTTP a HTTPS</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Habilite el drenaje de conexiones durante las actualizaciones de servicio planeadas para evitar la pérdida de conexión con los miembros existentes del grupo de back-end</t>
+          <t>Habilite el drenaje de conexiones durante las actualizaciones de servicio planeadas para evitar la pérdida de conexión a los miembros existentes del grupo de back-end</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Configure Front Door para optimizar el enrutamiento del tráfico web global y el rendimiento del usuario final de primer nivel, así como la confiabilidad a través de una rápida conmutación por error global</t>
+          <t>Configure Front Door para optimizar el enrutamiento del tráfico web global y el rendimiento y la confiabilidad del usuario final de primer nivel a través de una conmutación por error global rápida</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Use Application Gateway para obtener compatibilidad nativa con los protocolos WebSocket y HTTP/2</t>
+          <t>Uso de Application Gateway para obtener compatibilidad nativa con los protocolos WebSocket y HTTP/2</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
